--- a/result/analysis_reason/LR_coef/系数为0的总结.xlsx
+++ b/result/analysis_reason/LR_coef/系数为0的总结.xlsx
@@ -74,90 +74,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,11 +96,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,10 +180,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,9 +195,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,17 +447,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +471,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -499,20 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,166 +549,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1068,7 +1064,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1319,79 +1315,79 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3">
-        <v>941</v>
-      </c>
-      <c r="C16" s="3">
-        <v>941</v>
-      </c>
-      <c r="D16" s="3">
-        <v>926</v>
-      </c>
-      <c r="E16" s="3">
-        <v>930</v>
-      </c>
-      <c r="F16" s="3">
-        <v>941</v>
+      <c r="B16" s="5">
+        <v>934</v>
+      </c>
+      <c r="C16" s="5">
+        <v>931</v>
+      </c>
+      <c r="D16" s="5">
+        <v>917</v>
+      </c>
+      <c r="E16" s="5">
+        <v>920</v>
+      </c>
+      <c r="F16" s="5">
+        <v>937</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3">
-        <v>904</v>
-      </c>
-      <c r="C17" s="3">
-        <v>903</v>
-      </c>
-      <c r="D17" s="3">
-        <v>898</v>
-      </c>
-      <c r="E17" s="3">
-        <v>915</v>
-      </c>
-      <c r="F17" s="3">
-        <v>908</v>
+      <c r="B17" s="5">
+        <v>885</v>
+      </c>
+      <c r="C17" s="5">
+        <v>881</v>
+      </c>
+      <c r="D17" s="5">
+        <v>876</v>
+      </c>
+      <c r="E17" s="5">
+        <v>892</v>
+      </c>
+      <c r="F17" s="5">
+        <v>886</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
+        <v>806</v>
+      </c>
+      <c r="C18" s="5">
+        <v>812</v>
+      </c>
+      <c r="D18" s="5">
         <v>808</v>
       </c>
-      <c r="C18" s="3">
-        <v>818</v>
-      </c>
-      <c r="D18" s="3">
-        <v>810</v>
-      </c>
-      <c r="E18" s="3">
-        <v>802</v>
-      </c>
-      <c r="F18" s="3">
-        <v>802</v>
+      <c r="E18" s="5">
+        <v>799</v>
+      </c>
+      <c r="F18" s="5">
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>729</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>733</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>743</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>741</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>727</v>
       </c>
     </row>
@@ -1399,19 +1395,19 @@
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>750</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>737</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>745</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>745</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>746</v>
       </c>
     </row>
@@ -1419,19 +1415,19 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>999</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>1003</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>996</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>991</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>994</v>
       </c>
     </row>
@@ -1439,19 +1435,19 @@
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>874</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>876</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>876</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>885</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>884</v>
       </c>
     </row>
@@ -1459,19 +1455,19 @@
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>817</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>821</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>816</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>821</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>827</v>
       </c>
     </row>
@@ -1479,19 +1475,19 @@
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>1127</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>1119</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>1110</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>1133</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>1119</v>
       </c>
     </row>
